--- a/raw/M4_Thailand_Inflation_questions.xlsx
+++ b/raw/M4_Thailand_Inflation_questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="10350" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="6" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Forecast" sheetId="2" r:id="rId3"/>
     <sheet name="Forecast AR1" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -787,12 +787,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1123,9 +1124,33 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,6 +1158,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1211,6 +1241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1245,6 +1276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1420,21 +1452,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="58" customWidth="1"/>
     <col min="2" max="12" width="9.140625" style="58"/>
     <col min="13" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>189</v>
       </c>
@@ -1451,7 +1483,7 @@
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>190</v>
       </c>
@@ -1468,7 +1500,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="60"/>
       <c r="C4" s="23"/>
@@ -1483,7 +1515,7 @@
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>233</v>
       </c>
@@ -1500,7 +1532,7 @@
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>191</v>
       </c>
@@ -1517,7 +1549,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1529,7 +1561,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -1541,7 +1573,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1554,7 +1586,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -1567,7 +1599,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1580,7 +1612,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1592,7 +1624,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -1604,11 +1636,11 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="1:2" s="17" customFormat="1">
+    <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="58"/>
     </row>
-    <row r="18" spans="1:2" s="17" customFormat="1">
+    <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
     </row>
@@ -1620,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1630,7 +1662,7 @@
       <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
@@ -1641,7 +1673,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>236</v>
       </c>
@@ -1655,7 +1687,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>143</v>
@@ -1667,7 +1699,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1720,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1710,7 +1742,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1766,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1760,7 +1792,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1818,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1844,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1838,7 +1870,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1896,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +1918,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1910,7 +1942,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +1974,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -1976,7 +2008,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2038,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2066,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2088,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2094,7 +2126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
@@ -2134,7 +2166,7 @@
         <v>0.41194758261416703</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2206,7 @@
         <v>0.99792849379658377</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -2187,7 +2219,7 @@
       </c>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -2200,7 +2232,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -2213,7 +2245,7 @@
       </c>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -2226,7 +2258,7 @@
       </c>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
@@ -2239,7 +2271,7 @@
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2284,7 @@
       </c>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>24</v>
       </c>
@@ -2265,7 +2297,7 @@
       </c>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
@@ -2278,7 +2310,7 @@
       </c>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
@@ -2291,7 +2323,7 @@
       </c>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>27</v>
       </c>
@@ -2304,7 +2336,7 @@
       </c>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
@@ -2317,7 +2349,7 @@
       </c>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>29</v>
       </c>
@@ -2330,7 +2362,7 @@
       </c>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
@@ -2343,7 +2375,7 @@
       </c>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>31</v>
       </c>
@@ -2356,7 +2388,7 @@
       </c>
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>32</v>
       </c>
@@ -2369,7 +2401,7 @@
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>33</v>
       </c>
@@ -2382,7 +2414,7 @@
       </c>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>34</v>
       </c>
@@ -2395,7 +2427,7 @@
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>35</v>
       </c>
@@ -2408,7 +2440,7 @@
       </c>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
@@ -2421,7 +2453,7 @@
       </c>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>37</v>
       </c>
@@ -2434,7 +2466,7 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>38</v>
       </c>
@@ -2447,7 +2479,7 @@
       </c>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>39</v>
       </c>
@@ -2460,7 +2492,7 @@
       </c>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>40</v>
       </c>
@@ -2473,7 +2505,7 @@
       </c>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +2518,7 @@
       </c>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>42</v>
       </c>
@@ -2499,7 +2531,7 @@
       </c>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>43</v>
       </c>
@@ -2512,7 +2544,7 @@
       </c>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
@@ -2525,7 +2557,7 @@
       </c>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>45</v>
       </c>
@@ -2538,7 +2570,7 @@
       </c>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>46</v>
       </c>
@@ -2551,7 +2583,7 @@
       </c>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -2564,7 +2596,7 @@
       </c>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>48</v>
       </c>
@@ -2577,7 +2609,7 @@
       </c>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>49</v>
       </c>
@@ -2590,7 +2622,7 @@
       </c>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>50</v>
       </c>
@@ -2603,7 +2635,7 @@
       </c>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>51</v>
       </c>
@@ -2616,7 +2648,7 @@
       </c>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>52</v>
       </c>
@@ -2629,7 +2661,7 @@
       </c>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>53</v>
       </c>
@@ -2642,7 +2674,7 @@
       </c>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>54</v>
       </c>
@@ -2655,7 +2687,7 @@
       </c>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>55</v>
       </c>
@@ -2668,7 +2700,7 @@
       </c>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>56</v>
       </c>
@@ -2681,7 +2713,7 @@
       </c>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>57</v>
       </c>
@@ -2694,7 +2726,7 @@
       </c>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>58</v>
       </c>
@@ -2707,7 +2739,7 @@
       </c>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>59</v>
       </c>
@@ -2720,7 +2752,7 @@
       </c>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>60</v>
       </c>
@@ -2733,7 +2765,7 @@
       </c>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>61</v>
       </c>
@@ -2746,7 +2778,7 @@
       </c>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>62</v>
       </c>
@@ -2759,7 +2791,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>63</v>
       </c>
@@ -2772,7 +2804,7 @@
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>64</v>
       </c>
@@ -2785,7 +2817,7 @@
       </c>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>65</v>
       </c>
@@ -2798,7 +2830,7 @@
       </c>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>66</v>
       </c>
@@ -2811,7 +2843,7 @@
       </c>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>67</v>
       </c>
@@ -2824,7 +2856,7 @@
       </c>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>68</v>
       </c>
@@ -2837,7 +2869,7 @@
       </c>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>69</v>
       </c>
@@ -2850,7 +2882,7 @@
       </c>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>70</v>
       </c>
@@ -2863,7 +2895,7 @@
       </c>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>71</v>
       </c>
@@ -2876,7 +2908,7 @@
       </c>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>72</v>
       </c>
@@ -2889,7 +2921,7 @@
       </c>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>73</v>
       </c>
@@ -2902,7 +2934,7 @@
       </c>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>74</v>
       </c>
@@ -2915,7 +2947,7 @@
       </c>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>75</v>
       </c>
@@ -2928,7 +2960,7 @@
       </c>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>76</v>
       </c>
@@ -2941,7 +2973,7 @@
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>77</v>
       </c>
@@ -2954,7 +2986,7 @@
       </c>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>78</v>
       </c>
@@ -2967,7 +2999,7 @@
       </c>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>79</v>
       </c>
@@ -2980,7 +3012,7 @@
       </c>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>80</v>
       </c>
@@ -2993,7 +3025,7 @@
       </c>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>81</v>
       </c>
@@ -3006,7 +3038,7 @@
       </c>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>82</v>
       </c>
@@ -3019,7 +3051,7 @@
       </c>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>83</v>
       </c>
@@ -3032,7 +3064,7 @@
       </c>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>84</v>
       </c>
@@ -3045,7 +3077,7 @@
       </c>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>85</v>
       </c>
@@ -3058,7 +3090,7 @@
       </c>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>86</v>
       </c>
@@ -3071,7 +3103,7 @@
       </c>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>87</v>
       </c>
@@ -3084,7 +3116,7 @@
       </c>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>88</v>
       </c>
@@ -3097,7 +3129,7 @@
       </c>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>89</v>
       </c>
@@ -3110,7 +3142,7 @@
       </c>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>90</v>
       </c>
@@ -3123,7 +3155,7 @@
       </c>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>91</v>
       </c>
@@ -3136,7 +3168,7 @@
       </c>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>92</v>
       </c>
@@ -3149,7 +3181,7 @@
       </c>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>93</v>
       </c>
@@ -3162,7 +3194,7 @@
       </c>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>94</v>
       </c>
@@ -3175,7 +3207,7 @@
       </c>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>95</v>
       </c>
@@ -3188,7 +3220,7 @@
       </c>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>96</v>
       </c>
@@ -3201,7 +3233,7 @@
       </c>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>97</v>
       </c>
@@ -3214,7 +3246,7 @@
       </c>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>98</v>
       </c>
@@ -3227,7 +3259,7 @@
       </c>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>99</v>
       </c>
@@ -3240,7 +3272,7 @@
       </c>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>100</v>
       </c>
@@ -3253,7 +3285,7 @@
       </c>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>101</v>
       </c>
@@ -3266,7 +3298,7 @@
       </c>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>102</v>
       </c>
@@ -3279,7 +3311,7 @@
       </c>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>103</v>
       </c>
@@ -3292,7 +3324,7 @@
       </c>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>104</v>
       </c>
@@ -3305,7 +3337,7 @@
       </c>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>105</v>
       </c>
@@ -3318,7 +3350,7 @@
       </c>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>106</v>
       </c>
@@ -3331,7 +3363,7 @@
       </c>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>107</v>
       </c>
@@ -3344,7 +3376,7 @@
       </c>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>108</v>
       </c>
@@ -3357,7 +3389,7 @@
       </c>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>109</v>
       </c>
@@ -3370,7 +3402,7 @@
       </c>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>110</v>
       </c>
@@ -3383,7 +3415,7 @@
       </c>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>111</v>
       </c>
@@ -3396,7 +3428,7 @@
       </c>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>112</v>
       </c>
@@ -3409,7 +3441,7 @@
       </c>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>113</v>
       </c>
@@ -3422,7 +3454,7 @@
       </c>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>114</v>
       </c>
@@ -3435,7 +3467,7 @@
       </c>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>115</v>
       </c>
@@ -3448,7 +3480,7 @@
       </c>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>116</v>
       </c>
@@ -3461,7 +3493,7 @@
       </c>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>117</v>
       </c>
@@ -3474,7 +3506,7 @@
       </c>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>118</v>
       </c>
@@ -3487,7 +3519,7 @@
       </c>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>119</v>
       </c>
@@ -3500,7 +3532,7 @@
       </c>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>120</v>
       </c>
@@ -3513,7 +3545,7 @@
       </c>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>121</v>
       </c>
@@ -3526,7 +3558,7 @@
       </c>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>122</v>
       </c>
@@ -3539,7 +3571,7 @@
       </c>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>123</v>
       </c>
@@ -3552,7 +3584,7 @@
       </c>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>124</v>
       </c>
@@ -3565,7 +3597,7 @@
       </c>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>125</v>
       </c>
@@ -3578,7 +3610,7 @@
       </c>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>126</v>
       </c>
@@ -3591,7 +3623,7 @@
       </c>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>127</v>
       </c>
@@ -3604,7 +3636,7 @@
       </c>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>128</v>
       </c>
@@ -3617,7 +3649,7 @@
       </c>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>129</v>
       </c>
@@ -3630,7 +3662,7 @@
       </c>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>130</v>
       </c>
@@ -3643,7 +3675,7 @@
       </c>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1">
+    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>131</v>
       </c>
@@ -3656,7 +3688,7 @@
       </c>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" spans="1:4" ht="15.75" thickTop="1">
+    <row r="135" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>132</v>
       </c>
@@ -3672,7 +3704,7 @@
         <v>1.7409460508611778</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>133</v>
       </c>
@@ -3685,7 +3717,7 @@
         <v>1.8167073288967921</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>134</v>
       </c>
@@ -3698,7 +3730,7 @@
         <v>1.8876159302247719</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>135</v>
       </c>
@@ -3711,7 +3743,7 @@
         <v>1.9539826794753161</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>136</v>
       </c>
@@ -3724,7 +3756,7 @@
         <v>2.0160984922765288</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>137</v>
       </c>
@@ -3737,7 +3769,7 @@
         <v>2.0742356504698489</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>138</v>
       </c>
@@ -3750,7 +3782,7 @@
         <v>2.1286489956451238</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>139</v>
       </c>
@@ -3763,7 +3795,7 @@
         <v>2.1795770462271316</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>140</v>
       </c>
@@ -3776,7 +3808,7 @@
         <v>2.2272430430102528</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>141</v>
       </c>
@@ -3789,7 +3821,7 @@
         <v>2.2718559277243449</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>142</v>
       </c>
@@ -3802,7 +3834,7 @@
         <v>2.3136112589213131</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>169</v>
       </c>
@@ -3822,14 +3854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
@@ -3843,7 +3875,7 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -3859,7 +3891,7 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>238</v>
       </c>
@@ -3880,19 +3912,19 @@
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -3957,7 +3989,7 @@
       </c>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>131</v>
       </c>
@@ -3987,7 +4019,7 @@
       <c r="V4" s="68"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="str">
         <f>'Data '!A135</f>
         <v>2014 - Jan</v>
@@ -4055,7 +4087,7 @@
       </c>
       <c r="W5" s="18"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="str">
         <f>'Data '!A136</f>
         <v>2014 - Feb</v>
@@ -4123,7 +4155,7 @@
       </c>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="str">
         <f>'Data '!A137</f>
         <v>2014 - Mar</v>
@@ -4191,7 +4223,7 @@
       </c>
       <c r="W7" s="18"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="str">
         <f>'Data '!A138</f>
         <v>2014 - Apr</v>
@@ -4259,7 +4291,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f>'Data '!A139</f>
         <v>2014 - May</v>
@@ -4327,7 +4359,7 @@
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="str">
         <f>'Data '!A140</f>
         <v>2014 - Jun</v>
@@ -4395,7 +4427,7 @@
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="str">
         <f>'Data '!A141</f>
         <v>2014 - Jul</v>
@@ -4463,7 +4495,7 @@
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="str">
         <f>'Data '!A142</f>
         <v>2014 - Aug</v>
@@ -4531,7 +4563,7 @@
       </c>
       <c r="W12" s="18"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="str">
         <f>'Data '!A143</f>
         <v>2014 - Sep</v>
@@ -4599,7 +4631,7 @@
       </c>
       <c r="W13" s="18"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="str">
         <f>'Data '!A144</f>
         <v>2014 - Oct</v>
@@ -4667,7 +4699,7 @@
       </c>
       <c r="W14" s="18"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="str">
         <f>'Data '!A145</f>
         <v>2014 - Nov</v>
@@ -4735,7 +4767,7 @@
       </c>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="str">
         <f>'Data '!A146</f>
         <v>2014 - Dec</v>
@@ -4803,7 +4835,7 @@
       </c>
       <c r="W16" s="18"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickTop="1">
+    <row r="17" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>227</v>
       </c>
@@ -4887,7 +4919,7 @@
       </c>
       <c r="W17" s="18"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>226</v>
       </c>
@@ -4923,7 +4955,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>228</v>
       </c>
@@ -4956,7 +4988,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -4980,7 +5012,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>176</v>
       </c>
@@ -5013,7 +5045,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>213</v>
       </c>
@@ -5048,7 +5080,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>214</v>
       </c>
@@ -5083,7 +5115,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>215</v>
       </c>
@@ -5118,7 +5150,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>216</v>
       </c>
@@ -5153,7 +5185,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>217</v>
       </c>
@@ -5188,7 +5220,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>175</v>
       </c>
@@ -5223,7 +5255,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>218</v>
       </c>
@@ -5258,7 +5290,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickTop="1">
+    <row r="29" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>174</v>
       </c>
@@ -5286,7 +5318,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>173</v>
       </c>
@@ -5317,7 +5349,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="18"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
       <c r="B31" s="54" t="s">
         <v>220</v>
@@ -5348,7 +5380,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="52" t="s">
         <v>221</v>
@@ -5379,7 +5411,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+    <row r="33" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55"/>
       <c r="B33" s="50" t="s">
         <v>222</v>
@@ -5410,7 +5442,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickTop="1">
+    <row r="34" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="20"/>
@@ -5435,7 +5467,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="18"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="22" t="s">
         <v>224</v>
@@ -5459,7 +5491,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G36" s="22"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -5478,7 +5510,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G37" s="22"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
@@ -5497,7 +5529,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G38" s="22"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -5516,7 +5548,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G39" s="22"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -5535,7 +5567,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G40" s="22"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -5554,7 +5586,7 @@
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G41" s="22"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
@@ -5573,7 +5605,7 @@
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G42" s="22"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
@@ -5592,7 +5624,7 @@
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
@@ -5611,7 +5643,7 @@
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -5636,7 +5668,7 @@
       <c r="V44" s="18"/>
       <c r="W44" s="18"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -5672,34 +5704,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="15" width="10.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="14.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16" width="10.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="I1" s="16"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
@@ -5708,8 +5741,9 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>237</v>
       </c>
@@ -5723,30 +5757,31 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="27"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="70" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70" t="s">
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="18"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
@@ -5766,52 +5801,53 @@
         <v>187</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="J3" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="N3" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="O3" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="P3" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="S3" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="T3" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="U3" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="V3" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="W3" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>239</v>
       </c>
@@ -5821,27 +5857,34 @@
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="42">
+        <f>C4-$B4</f>
+        <v>-1.66</v>
+      </c>
+      <c r="F4" s="42">
+        <f>D4-$B4</f>
+        <v>-1.66</v>
+      </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="68"/>
       <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
       <c r="O4" s="68"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="str">
         <f>'Data '!A135</f>
         <v>2014 - Jan</v>
@@ -5858,27 +5901,82 @@
         <f>$B$4</f>
         <v>1.66</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="18"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="E5" s="42">
+        <f t="shared" ref="E5:F16" si="0">C5-$B5</f>
+        <v>-0.18905394913882212</v>
+      </c>
+      <c r="F5" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.27</v>
+      </c>
+      <c r="G5" s="74">
+        <f>I5-$E$17</f>
+        <v>-0.14702647705916028</v>
+      </c>
+      <c r="H5" s="74">
+        <f>J5-$E$17</f>
+        <v>-0.10986787274414463</v>
+      </c>
+      <c r="I5" s="73">
+        <f t="shared" ref="I5:I16" si="1">E5^2</f>
+        <v>3.5741395684984342E-2</v>
+      </c>
+      <c r="J5" s="73">
+        <f t="shared" ref="J5:J16" si="2">F5^2</f>
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="K5" s="68">
+        <f t="shared" ref="K5:K16" si="3">ABS(E5)</f>
+        <v>0.18905394913882212</v>
+      </c>
+      <c r="L5" s="68">
+        <f t="shared" ref="L5:L16" si="4">ABS(F5)</f>
+        <v>0.27</v>
+      </c>
+      <c r="M5" s="72">
+        <f t="shared" ref="M5:M16" si="5">E5/$B5</f>
+        <v>-9.7955414061565868E-2</v>
+      </c>
+      <c r="N5" s="72">
+        <f t="shared" ref="N5:N16" si="6">F5/$B5</f>
+        <v>-0.13989637305699484</v>
+      </c>
+      <c r="O5" s="32">
+        <f>ABS(M5)</f>
+        <v>9.7955414061565868E-2</v>
+      </c>
+      <c r="P5" s="32">
+        <f>ABS(N5)</f>
+        <v>0.13989637305699484</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="73">
+        <f t="shared" ref="R5:R16" si="7">B5^2</f>
+        <v>3.7248999999999999</v>
+      </c>
+      <c r="S5" s="73">
+        <f t="shared" ref="S4:T16" si="8">C5^2</f>
+        <v>3.0308931520091309</v>
+      </c>
+      <c r="T5" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U5" s="81">
+        <f>((C5-$B5)/$B$4)^2</f>
+        <v>1.2970458587960641E-2</v>
+      </c>
+      <c r="V5" s="81">
+        <f>((D5-$B5)/$B$4)^2</f>
+        <v>2.6455218464218326E-2</v>
+      </c>
+      <c r="W5" s="68">
+        <f>(($B$4-B5)/$B$4)^2</f>
+        <v>2.6455218464218326E-2</v>
+      </c>
+      <c r="X5" s="18"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="str">
         <f>'Data '!A136</f>
         <v>2014 - Feb</v>
@@ -5892,30 +5990,85 @@
         <v>1.8167073288967921</v>
       </c>
       <c r="D6" s="31">
-        <f t="shared" ref="D6:D16" si="0">$B$4</f>
+        <f t="shared" ref="D6:D16" si="9">$B$4</f>
         <v>1.66</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="E6" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.13329267110320786</v>
+      </c>
+      <c r="F6" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="G6" s="74">
+        <f t="shared" ref="G6:G16" si="10">I6-$E$17</f>
+        <v>-0.16500093657431669</v>
+      </c>
+      <c r="H6" s="74">
+        <f t="shared" ref="H6:H16" si="11">J6-$E$17</f>
+        <v>-9.8667872744144611E-2</v>
+      </c>
+      <c r="I6" s="73">
+        <f t="shared" si="1"/>
+        <v>1.7766936169827944E-2</v>
+      </c>
+      <c r="J6" s="73">
+        <f t="shared" si="2"/>
+        <v>8.4100000000000022E-2</v>
+      </c>
+      <c r="K6" s="68">
+        <f t="shared" si="3"/>
+        <v>0.13329267110320786</v>
+      </c>
+      <c r="L6" s="68">
+        <f t="shared" si="4"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="M6" s="72">
+        <f t="shared" si="5"/>
+        <v>-6.8355215950363007E-2</v>
+      </c>
+      <c r="N6" s="72">
+        <f t="shared" si="6"/>
+        <v>-0.14871794871794874</v>
+      </c>
+      <c r="O6" s="32">
+        <f t="shared" ref="O6:P16" si="12">ABS(M6)</f>
+        <v>6.8355215950363007E-2</v>
+      </c>
+      <c r="P6" s="32">
+        <f t="shared" si="12"/>
+        <v>0.14871794871794874</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="73">
+        <f t="shared" si="7"/>
+        <v>3.8024999999999998</v>
+      </c>
+      <c r="S6" s="73">
+        <f t="shared" si="8"/>
+        <v>3.3004255188673173</v>
+      </c>
+      <c r="T6" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U6" s="81">
+        <f t="shared" ref="U6:V16" si="13">((C6-$B6)/$B$4)^2</f>
+        <v>6.4475744555915022E-3</v>
+      </c>
+      <c r="V6" s="81">
+        <f t="shared" si="13"/>
+        <v>3.0519669037596179E-2</v>
+      </c>
+      <c r="W6" s="68">
+        <f t="shared" ref="W6:W16" si="14">(($B$4-B6)/$B$4)^2</f>
+        <v>3.0519669037596179E-2</v>
+      </c>
+      <c r="X6" s="18"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="str">
         <f>'Data '!A137</f>
         <v>2014 - Mar</v>
@@ -5929,30 +6082,85 @@
         <v>1.8876159302247719</v>
       </c>
       <c r="D7" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="18"/>
-    </row>
-    <row r="8" spans="1:23">
+        <v>-0.23238406977522819</v>
+      </c>
+      <c r="F7" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.46000000000000019</v>
+      </c>
+      <c r="G7" s="74">
+        <f t="shared" si="10"/>
+        <v>-0.12876551685884652</v>
+      </c>
+      <c r="H7" s="74">
+        <f t="shared" si="11"/>
+        <v>2.8832127255855544E-2</v>
+      </c>
+      <c r="I7" s="73">
+        <f t="shared" si="1"/>
+        <v>5.4002355885298121E-2</v>
+      </c>
+      <c r="J7" s="73">
+        <f t="shared" si="2"/>
+        <v>0.21160000000000018</v>
+      </c>
+      <c r="K7" s="68">
+        <f t="shared" si="3"/>
+        <v>0.23238406977522819</v>
+      </c>
+      <c r="L7" s="68">
+        <f t="shared" si="4"/>
+        <v>0.46000000000000019</v>
+      </c>
+      <c r="M7" s="72">
+        <f t="shared" si="5"/>
+        <v>-0.10961512725246612</v>
+      </c>
+      <c r="N7" s="72">
+        <f t="shared" si="6"/>
+        <v>-0.21698113207547179</v>
+      </c>
+      <c r="O7" s="32">
+        <f t="shared" si="12"/>
+        <v>0.10961512725246612</v>
+      </c>
+      <c r="P7" s="32">
+        <f t="shared" si="12"/>
+        <v>0.21698113207547179</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="73">
+        <f t="shared" si="7"/>
+        <v>4.4944000000000006</v>
+      </c>
+      <c r="S7" s="73">
+        <f t="shared" si="8"/>
+        <v>3.5630939000383308</v>
+      </c>
+      <c r="T7" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U7" s="81">
+        <f t="shared" si="13"/>
+        <v>1.9597313066228094E-2</v>
+      </c>
+      <c r="V7" s="81">
+        <f t="shared" si="13"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
+      <c r="W7" s="68">
+        <f t="shared" si="14"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="str">
         <f>'Data '!A138</f>
         <v>2014 - Apr</v>
@@ -5966,30 +6174,85 @@
         <v>1.9539826794753161</v>
       </c>
       <c r="D8" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E8" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" spans="1:23">
+        <v>-0.52601732052468386</v>
+      </c>
+      <c r="F8" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.82000000000000006</v>
+      </c>
+      <c r="G8" s="74">
+        <f t="shared" si="10"/>
+        <v>9.3926348747823352E-2</v>
+      </c>
+      <c r="H8" s="74">
+        <f t="shared" si="11"/>
+        <v>0.48963212725585548</v>
+      </c>
+      <c r="I8" s="73">
+        <f t="shared" si="1"/>
+        <v>0.27669422149196798</v>
+      </c>
+      <c r="J8" s="73">
+        <f t="shared" si="2"/>
+        <v>0.67240000000000011</v>
+      </c>
+      <c r="K8" s="68">
+        <f t="shared" si="3"/>
+        <v>0.52601732052468386</v>
+      </c>
+      <c r="L8" s="68">
+        <f t="shared" si="4"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="M8" s="72">
+        <f t="shared" si="5"/>
+        <v>-0.21210375827608222</v>
+      </c>
+      <c r="N8" s="72">
+        <f t="shared" si="6"/>
+        <v>-0.33064516129032262</v>
+      </c>
+      <c r="O8" s="32">
+        <f t="shared" si="12"/>
+        <v>0.21210375827608222</v>
+      </c>
+      <c r="P8" s="32">
+        <f t="shared" si="12"/>
+        <v>0.33064516129032262</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="73">
+        <f t="shared" si="7"/>
+        <v>6.1504000000000003</v>
+      </c>
+      <c r="S8" s="73">
+        <f t="shared" si="8"/>
+        <v>3.8180483116895361</v>
+      </c>
+      <c r="T8" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U8" s="81">
+        <f t="shared" si="13"/>
+        <v>0.10041160599940775</v>
+      </c>
+      <c r="V8" s="81">
+        <f t="shared" si="13"/>
+        <v>0.24401219335172017</v>
+      </c>
+      <c r="W8" s="68">
+        <f t="shared" si="14"/>
+        <v>0.24401219335172017</v>
+      </c>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="str">
         <f>'Data '!A139</f>
         <v>2014 - May</v>
@@ -6003,30 +6266,85 @@
         <v>2.0160984922765288</v>
       </c>
       <c r="D9" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E9" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="18"/>
-    </row>
-    <row r="10" spans="1:23">
+        <v>-0.60390150772347129</v>
+      </c>
+      <c r="F9" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.96000000000000019</v>
+      </c>
+      <c r="G9" s="74">
+        <f t="shared" si="10"/>
+        <v>0.18192915828653722</v>
+      </c>
+      <c r="H9" s="74">
+        <f t="shared" si="11"/>
+        <v>0.73883212725585568</v>
+      </c>
+      <c r="I9" s="73">
+        <f t="shared" si="1"/>
+        <v>0.36469703103068185</v>
+      </c>
+      <c r="J9" s="73">
+        <f t="shared" si="2"/>
+        <v>0.92160000000000031</v>
+      </c>
+      <c r="K9" s="68">
+        <f t="shared" si="3"/>
+        <v>0.60390150772347129</v>
+      </c>
+      <c r="L9" s="68">
+        <f t="shared" si="4"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="M9" s="72">
+        <f t="shared" si="5"/>
+        <v>-0.23049675867308064</v>
+      </c>
+      <c r="N9" s="72">
+        <f t="shared" si="6"/>
+        <v>-0.36641221374045807</v>
+      </c>
+      <c r="O9" s="32">
+        <f t="shared" si="12"/>
+        <v>0.23049675867308064</v>
+      </c>
+      <c r="P9" s="32">
+        <f t="shared" si="12"/>
+        <v>0.36641221374045807</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="73">
+        <f t="shared" si="7"/>
+        <v>6.8644000000000007</v>
+      </c>
+      <c r="S9" s="73">
+        <f t="shared" si="8"/>
+        <v>4.0646531305596927</v>
+      </c>
+      <c r="T9" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U9" s="81">
+        <f t="shared" si="13"/>
+        <v>0.13234759436445126</v>
+      </c>
+      <c r="V9" s="81">
+        <f t="shared" si="13"/>
+        <v>0.33444621860937734</v>
+      </c>
+      <c r="W9" s="68">
+        <f t="shared" si="14"/>
+        <v>0.33444621860937734</v>
+      </c>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="str">
         <f>'Data '!A140</f>
         <v>2014 - Jun</v>
@@ -6040,30 +6358,85 @@
         <v>2.0742356504698489</v>
       </c>
       <c r="D10" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E10" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="18"/>
-    </row>
-    <row r="11" spans="1:23">
+        <v>-0.27576434953015116</v>
+      </c>
+      <c r="F10" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.69000000000000017</v>
+      </c>
+      <c r="G10" s="74">
+        <f t="shared" si="10"/>
+        <v>-0.10672189627235724</v>
+      </c>
+      <c r="H10" s="74">
+        <f t="shared" si="11"/>
+        <v>0.29333212725585561</v>
+      </c>
+      <c r="I10" s="73">
+        <f t="shared" si="1"/>
+        <v>7.6045976471787388E-2</v>
+      </c>
+      <c r="J10" s="73">
+        <f t="shared" si="2"/>
+        <v>0.47610000000000025</v>
+      </c>
+      <c r="K10" s="68">
+        <f t="shared" si="3"/>
+        <v>0.27576434953015116</v>
+      </c>
+      <c r="L10" s="68">
+        <f t="shared" si="4"/>
+        <v>0.69000000000000017</v>
+      </c>
+      <c r="M10" s="72">
+        <f t="shared" si="5"/>
+        <v>-0.11734653171495794</v>
+      </c>
+      <c r="N10" s="72">
+        <f t="shared" si="6"/>
+        <v>-0.29361702127659578</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" si="12"/>
+        <v>0.11734653171495794</v>
+      </c>
+      <c r="P10" s="32">
+        <f t="shared" si="12"/>
+        <v>0.29361702127659578</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="73">
+        <f t="shared" si="7"/>
+        <v>5.5225000000000009</v>
+      </c>
+      <c r="S10" s="73">
+        <f t="shared" si="8"/>
+        <v>4.3024535336800769</v>
+      </c>
+      <c r="T10" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U10" s="81">
+        <f t="shared" si="13"/>
+        <v>2.7596885060163806E-2</v>
+      </c>
+      <c r="V10" s="81">
+        <f t="shared" si="13"/>
+        <v>0.17277543910582097</v>
+      </c>
+      <c r="W10" s="68">
+        <f t="shared" si="14"/>
+        <v>0.17277543910582097</v>
+      </c>
+      <c r="X10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="str">
         <f>'Data '!A141</f>
         <v>2014 - Jul</v>
@@ -6077,30 +6450,85 @@
         <v>2.1286489956451238</v>
       </c>
       <c r="D11" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="18"/>
-    </row>
-    <row r="12" spans="1:23">
+        <v>-3.1351004354876366E-2</v>
+      </c>
+      <c r="F11" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.50000000000000022</v>
+      </c>
+      <c r="G11" s="74">
+        <f t="shared" si="10"/>
+        <v>-0.18178498727008516</v>
+      </c>
+      <c r="H11" s="74">
+        <f t="shared" si="11"/>
+        <v>6.7232127255855589E-2</v>
+      </c>
+      <c r="I11" s="73">
+        <f t="shared" si="1"/>
+        <v>9.8288547405947697E-4</v>
+      </c>
+      <c r="J11" s="73">
+        <f t="shared" si="2"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="K11" s="68">
+        <f t="shared" si="3"/>
+        <v>3.1351004354876366E-2</v>
+      </c>
+      <c r="L11" s="68">
+        <f t="shared" si="4"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="M11" s="72">
+        <f t="shared" si="5"/>
+        <v>-1.4514353867998316E-2</v>
+      </c>
+      <c r="N11" s="72">
+        <f t="shared" si="6"/>
+        <v>-0.23148148148148157</v>
+      </c>
+      <c r="O11" s="32">
+        <f t="shared" si="12"/>
+        <v>1.4514353867998316E-2</v>
+      </c>
+      <c r="P11" s="32">
+        <f t="shared" si="12"/>
+        <v>0.23148148148148157</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="73">
+        <f t="shared" si="7"/>
+        <v>4.6656000000000004</v>
+      </c>
+      <c r="S11" s="73">
+        <f t="shared" si="8"/>
+        <v>4.5311465466609944</v>
+      </c>
+      <c r="T11" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U11" s="81">
+        <f t="shared" si="13"/>
+        <v>3.5668655612551781E-4</v>
+      </c>
+      <c r="V11" s="81">
+        <f t="shared" si="13"/>
+        <v>9.072434315575563E-2</v>
+      </c>
+      <c r="W11" s="68">
+        <f t="shared" si="14"/>
+        <v>9.072434315575563E-2</v>
+      </c>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="str">
         <f>'Data '!A142</f>
         <v>2014 - Aug</v>
@@ -6114,30 +6542,85 @@
         <v>2.1795770462271316</v>
       </c>
       <c r="D12" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="18"/>
-    </row>
-    <row r="13" spans="1:23">
+        <v>5.9577046227131447E-2</v>
+      </c>
+      <c r="F12" s="42">
+        <f t="shared" si="0"/>
+        <v>-0.46000000000000019</v>
+      </c>
+      <c r="G12" s="74">
+        <f t="shared" si="10"/>
+        <v>-0.17921844830699488</v>
+      </c>
+      <c r="H12" s="74">
+        <f t="shared" si="11"/>
+        <v>2.8832127255855544E-2</v>
+      </c>
+      <c r="I12" s="73">
+        <f t="shared" si="1"/>
+        <v>3.5494244371497576E-3</v>
+      </c>
+      <c r="J12" s="73">
+        <f t="shared" si="2"/>
+        <v>0.21160000000000018</v>
+      </c>
+      <c r="K12" s="68">
+        <f t="shared" si="3"/>
+        <v>5.9577046227131447E-2</v>
+      </c>
+      <c r="L12" s="68">
+        <f t="shared" si="4"/>
+        <v>0.46000000000000019</v>
+      </c>
+      <c r="M12" s="72">
+        <f t="shared" si="5"/>
+        <v>2.8102380295816718E-2</v>
+      </c>
+      <c r="N12" s="72">
+        <f t="shared" si="6"/>
+        <v>-0.21698113207547179</v>
+      </c>
+      <c r="O12" s="32">
+        <f t="shared" si="12"/>
+        <v>2.8102380295816718E-2</v>
+      </c>
+      <c r="P12" s="32">
+        <f t="shared" si="12"/>
+        <v>0.21698113207547179</v>
+      </c>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="73">
+        <f t="shared" si="7"/>
+        <v>4.4944000000000006</v>
+      </c>
+      <c r="S12" s="73">
+        <f t="shared" si="8"/>
+        <v>4.7505561004401873</v>
+      </c>
+      <c r="T12" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U12" s="81">
+        <f t="shared" si="13"/>
+        <v>1.2880768025655964E-3</v>
+      </c>
+      <c r="V12" s="81">
+        <f t="shared" si="13"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
+      <c r="W12" s="68">
+        <f t="shared" si="14"/>
+        <v>7.6789084047031567E-2</v>
+      </c>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="str">
         <f>'Data '!A143</f>
         <v>2014 - Sep</v>
@@ -6151,30 +6634,85 @@
         <v>2.2272430430102528</v>
       </c>
       <c r="D13" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E13" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="18"/>
-    </row>
-    <row r="14" spans="1:23">
+        <v>0.49724304301025279</v>
+      </c>
+      <c r="F13" s="42">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+      <c r="G13" s="74">
+        <f t="shared" si="10"/>
+        <v>6.4482771077951473E-2</v>
+      </c>
+      <c r="H13" s="74">
+        <f t="shared" si="11"/>
+        <v>-0.17786787274414462</v>
+      </c>
+      <c r="I13" s="73">
+        <f t="shared" si="1"/>
+        <v>0.24725064382209611</v>
+      </c>
+      <c r="J13" s="73">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000085E-3</v>
+      </c>
+      <c r="K13" s="68">
+        <f t="shared" si="3"/>
+        <v>0.49724304301025279</v>
+      </c>
+      <c r="L13" s="68">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="M13" s="72">
+        <f t="shared" si="5"/>
+        <v>0.28742372428338314</v>
+      </c>
+      <c r="N13" s="72">
+        <f t="shared" si="6"/>
+        <v>-4.0462427745664775E-2</v>
+      </c>
+      <c r="O13" s="32">
+        <f t="shared" si="12"/>
+        <v>0.28742372428338314</v>
+      </c>
+      <c r="P13" s="32">
+        <f t="shared" si="12"/>
+        <v>4.0462427745664775E-2</v>
+      </c>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="73">
+        <f t="shared" si="7"/>
+        <v>2.9929000000000001</v>
+      </c>
+      <c r="S13" s="73">
+        <f t="shared" si="8"/>
+        <v>4.9606115726375704</v>
+      </c>
+      <c r="T13" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U13" s="81">
+        <f t="shared" si="13"/>
+        <v>8.9726609022389353E-2</v>
+      </c>
+      <c r="V13" s="81">
+        <f t="shared" si="13"/>
+        <v>1.7781971258528121E-3</v>
+      </c>
+      <c r="W13" s="68">
+        <f t="shared" si="14"/>
+        <v>1.7781971258528121E-3</v>
+      </c>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="str">
         <f>'Data '!A144</f>
         <v>2014 - Oct</v>
@@ -6188,30 +6726,85 @@
         <v>2.2718559277243449</v>
       </c>
       <c r="D14" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E14" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="18"/>
-    </row>
-    <row r="15" spans="1:23">
+        <v>0.8218559277243449</v>
+      </c>
+      <c r="F14" s="42">
+        <f t="shared" si="0"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="G14" s="74">
+        <f t="shared" si="10"/>
+        <v>0.49267929319149895</v>
+      </c>
+      <c r="H14" s="74">
+        <f t="shared" si="11"/>
+        <v>-0.13866787274414466</v>
+      </c>
+      <c r="I14" s="73">
+        <f t="shared" si="1"/>
+        <v>0.67544716593564358</v>
+      </c>
+      <c r="J14" s="73">
+        <f t="shared" si="2"/>
+        <v>4.4099999999999986E-2</v>
+      </c>
+      <c r="K14" s="68">
+        <f t="shared" si="3"/>
+        <v>0.8218559277243449</v>
+      </c>
+      <c r="L14" s="68">
+        <f t="shared" si="4"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="M14" s="72">
+        <f t="shared" si="5"/>
+        <v>0.56679719153403096</v>
+      </c>
+      <c r="N14" s="72">
+        <f t="shared" si="6"/>
+        <v>0.14482758620689654</v>
+      </c>
+      <c r="O14" s="32">
+        <f t="shared" si="12"/>
+        <v>0.56679719153403096</v>
+      </c>
+      <c r="P14" s="32">
+        <f t="shared" si="12"/>
+        <v>0.14482758620689654</v>
+      </c>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="73">
+        <f t="shared" si="7"/>
+        <v>2.1025</v>
+      </c>
+      <c r="S14" s="73">
+        <f t="shared" si="8"/>
+        <v>5.1613293563362435</v>
+      </c>
+      <c r="T14" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U14" s="81">
+        <f t="shared" si="13"/>
+        <v>0.24511800186371163</v>
+      </c>
+      <c r="V14" s="81">
+        <f t="shared" si="13"/>
+        <v>1.6003774132675279E-2</v>
+      </c>
+      <c r="W14" s="68">
+        <f t="shared" si="14"/>
+        <v>1.6003774132675279E-2</v>
+      </c>
+      <c r="X14" s="18"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="str">
         <f>'Data '!A145</f>
         <v>2014 - Nov</v>
@@ -6225,30 +6818,85 @@
         <v>2.3136112589213131</v>
       </c>
       <c r="D15" s="31">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E15" s="42">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="18"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1">
+        <v>1.0736112589213131</v>
+      </c>
+      <c r="F15" s="42">
+        <f t="shared" si="0"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="G15" s="74">
+        <f t="shared" si="10"/>
+        <v>0.96987326253846229</v>
+      </c>
+      <c r="H15" s="74">
+        <f t="shared" si="11"/>
+        <v>-6.367872744144687E-3</v>
+      </c>
+      <c r="I15" s="73">
+        <f t="shared" si="1"/>
+        <v>1.1526411352826069</v>
+      </c>
+      <c r="J15" s="73">
+        <f t="shared" si="2"/>
+        <v>0.17639999999999995</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" si="3"/>
+        <v>1.0736112589213131</v>
+      </c>
+      <c r="L15" s="68">
+        <f t="shared" si="4"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="M15" s="72">
+        <f t="shared" si="5"/>
+        <v>0.86581553138815581</v>
+      </c>
+      <c r="N15" s="72">
+        <f t="shared" si="6"/>
+        <v>0.33870967741935476</v>
+      </c>
+      <c r="O15" s="32">
+        <f t="shared" si="12"/>
+        <v>0.86581553138815581</v>
+      </c>
+      <c r="P15" s="32">
+        <f t="shared" si="12"/>
+        <v>0.33870967741935476</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="73">
+        <f t="shared" si="7"/>
+        <v>1.5376000000000001</v>
+      </c>
+      <c r="S15" s="73">
+        <f t="shared" si="8"/>
+        <v>5.3527970574074635</v>
+      </c>
+      <c r="T15" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U15" s="81">
+        <f t="shared" si="13"/>
+        <v>0.41829043957127554</v>
+      </c>
+      <c r="V15" s="81">
+        <f t="shared" si="13"/>
+        <v>6.4015096530701115E-2</v>
+      </c>
+      <c r="W15" s="68">
+        <f t="shared" si="14"/>
+        <v>6.4015096530701115E-2</v>
+      </c>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" s="78" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="str">
         <f>'Data '!A146</f>
         <v>2014 - Dec</v>
@@ -6262,30 +6910,85 @@
         <v>2.352692069197134</v>
       </c>
       <c r="D16" s="37">
+        <f t="shared" si="9"/>
+        <v>1.66</v>
+      </c>
+      <c r="E16" s="37">
         <f t="shared" si="0"/>
-        <v>1.66</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="18"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" thickTop="1">
+        <v>1.7326920691971339</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="G16" s="74">
+        <f t="shared" si="10"/>
+        <v>2.8194539339145011</v>
+      </c>
+      <c r="H16" s="74">
+        <f t="shared" si="11"/>
+        <v>0.89883212725585548</v>
+      </c>
+      <c r="I16" s="75">
+        <f t="shared" si="1"/>
+        <v>3.0022218066586457</v>
+      </c>
+      <c r="J16" s="75">
+        <f t="shared" si="2"/>
+        <v>1.0816000000000001</v>
+      </c>
+      <c r="K16" s="76">
+        <f t="shared" si="3"/>
+        <v>1.7326920691971339</v>
+      </c>
+      <c r="L16" s="76">
+        <f t="shared" si="4"/>
+        <v>1.04</v>
+      </c>
+      <c r="M16" s="79">
+        <f t="shared" si="5"/>
+        <v>2.7946646277373128</v>
+      </c>
+      <c r="N16" s="79">
+        <f t="shared" si="6"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="O16" s="38">
+        <f t="shared" si="12"/>
+        <v>2.7946646277373128</v>
+      </c>
+      <c r="P16" s="38">
+        <f t="shared" si="12"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="73">
+        <f t="shared" si="7"/>
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="S16" s="73">
+        <f t="shared" si="8"/>
+        <v>5.5351599724630924</v>
+      </c>
+      <c r="T16" s="73">
+        <f t="shared" si="8"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="U16" s="81">
+        <f t="shared" si="13"/>
+        <v>1.0894984056679655</v>
+      </c>
+      <c r="V16" s="81">
+        <f t="shared" si="13"/>
+        <v>0.39250979822906085</v>
+      </c>
+      <c r="W16" s="68">
+        <f t="shared" si="14"/>
+        <v>0.39250979822906085</v>
+      </c>
+      <c r="X16" s="77"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>227</v>
       </c>
@@ -6294,82 +6997,89 @@
         <v>1.8975</v>
       </c>
       <c r="C17" s="41">
-        <f t="shared" ref="C17:F17" si="1">AVERAGE(C5:C16)</f>
+        <f t="shared" ref="C17:D17" si="15">AVERAGE(C5:C16)</f>
         <v>2.0802678727441446</v>
       </c>
       <c r="D17" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.66</v>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="41">
         <f>IFERROR(AVERAGE(E5:E16),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="41" t="str">
+        <v>0.18276787274414463</v>
+      </c>
+      <c r="F17" s="41">
         <f>IFERROR(AVERAGE(F5:F16),"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="41" t="str">
+        <v>-0.23750000000000013</v>
+      </c>
+      <c r="G17" s="41">
+        <f>IFERROR(AVERAGE(G5:G16),"")</f>
+        <v>0.30948554211791784</v>
+      </c>
+      <c r="H17" s="41">
         <f>IFERROR(AVERAGE(H5:H16),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="41" t="str">
-        <f t="shared" ref="I17:Q17" si="2">IFERROR(AVERAGE(I5:I16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R17" s="41" t="str">
-        <f t="shared" ref="R17" si="3">IFERROR(AVERAGE(R5:R16),"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="41" t="str">
-        <f t="shared" ref="S17" si="4">IFERROR(AVERAGE(S5:S16),"")</f>
-        <v/>
-      </c>
-      <c r="T17" s="41" t="str">
-        <f t="shared" ref="T17" si="5">IFERROR(AVERAGE(T5:T16),"")</f>
-        <v/>
-      </c>
-      <c r="U17" s="41" t="str">
-        <f t="shared" ref="U17" si="6">IFERROR(AVERAGE(U5:U16),"")</f>
-        <v/>
-      </c>
-      <c r="V17" s="41" t="str">
-        <f t="shared" ref="V17" si="7">IFERROR(AVERAGE(V5:V16),"")</f>
-        <v/>
-      </c>
-      <c r="W17" s="18"/>
-    </row>
-    <row r="18" spans="1:23">
+        <v>0.16784046058918878</v>
+      </c>
+      <c r="I17" s="41">
+        <f>IFERROR(AVERAGE(I5:I16),"")</f>
+        <v>0.49225341486206248</v>
+      </c>
+      <c r="J17" s="41">
+        <f t="shared" ref="J17:R17" si="16">IFERROR(AVERAGE(J5:J16),"")</f>
+        <v>0.35060833333333341</v>
+      </c>
+      <c r="K17" s="41">
+        <f t="shared" si="16"/>
+        <v>0.51472868476921807</v>
+      </c>
+      <c r="L17" s="41">
+        <f t="shared" si="16"/>
+        <v>0.51583333333333348</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" si="16"/>
+        <v>0.30770135795351544</v>
+      </c>
+      <c r="N17" s="31">
+        <f t="shared" si="16"/>
+        <v>1.4646810583712569E-2</v>
+      </c>
+      <c r="O17" s="41">
+        <f t="shared" si="16"/>
+        <v>0.44943255125293446</v>
+      </c>
+      <c r="P17" s="41">
+        <f t="shared" si="16"/>
+        <v>0.34551262582711434</v>
+      </c>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="41">
+        <f t="shared" si="16"/>
+        <v>3.8947083333333326</v>
+      </c>
+      <c r="S17" s="41">
+        <f t="shared" ref="S17" si="17">IFERROR(AVERAGE(S5:S16),"")</f>
+        <v>4.3642640127324697</v>
+      </c>
+      <c r="T17" s="41">
+        <f t="shared" ref="T17" si="18">IFERROR(AVERAGE(T5:T16),"")</f>
+        <v>2.7556000000000007</v>
+      </c>
+      <c r="U17" s="41">
+        <f>IFERROR(AVERAGE(U5:U16),"")</f>
+        <v>0.17863747091815299</v>
+      </c>
+      <c r="V17" s="41">
+        <f t="shared" ref="V17" si="19">IFERROR(AVERAGE(V5:V16),"")</f>
+        <v>0.12723484298640347</v>
+      </c>
+      <c r="W17" s="41">
+        <f t="shared" ref="W17" si="20">IFERROR(AVERAGE(W5:W16),"")</f>
+        <v>0.12723484298640347</v>
+      </c>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>226</v>
       </c>
@@ -6378,17 +7088,23 @@
         <v>0.54240398535900636</v>
       </c>
       <c r="C18" s="41">
-        <f t="shared" ref="C18:D18" si="8">STDEVP(C5:C16)</f>
-        <v>0.1917018267023595</v>
+        <f t="shared" ref="C18:F18" si="21">STDEVP(C5:C16)</f>
+        <v>0.191701826702358</v>
       </c>
       <c r="D18" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="41">
+        <f t="shared" si="21"/>
+        <v>0.67738417427235675</v>
+      </c>
+      <c r="F18" s="41">
+        <f t="shared" si="21"/>
+        <v>0.54240398535900658</v>
+      </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -6396,16 +7112,32 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="19">
+        <f>R18/R19</f>
+        <v>5.685400794722506E-2</v>
+      </c>
+      <c r="R18" s="19">
+        <f>SQRT((S17-$R17)^2)</f>
+        <v>0.46955567939913712</v>
+      </c>
+      <c r="S18" s="19">
+        <f>SQRT((T17-$R17)^2)</f>
+        <v>1.1391083333333318</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18">
+        <f>U17/$W$17</f>
+        <v>1.4039980458595174</v>
+      </c>
+      <c r="V18" s="18">
+        <f>V17/$W$17</f>
+        <v>1</v>
+      </c>
       <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>228</v>
       </c>
@@ -6418,10 +7150,16 @@
         <f>IF(COVAR(B5:B16,D5:D16)=0,0,CORREL(B5:B16,D5:D16))</f>
         <v>0</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="44">
+        <f t="shared" ref="E19:F19" si="22">IF(COVAR(C5:C16,E5:E16)=0,0,CORREL(C5:C16,E5:E16))</f>
+        <v>0.77546344497997066</v>
+      </c>
+      <c r="F19" s="44">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -6429,23 +7167,33 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="18">
+        <f>S18/S19</f>
+        <v>0.17128654435821875</v>
+      </c>
+      <c r="R19" s="82">
+        <f>SQRT(S17^2)+SQRT($R17^2)</f>
+        <v>8.2589723460658018</v>
+      </c>
+      <c r="S19" s="82">
+        <f>SQRT(T17^2)+SQRT($R17^2)</f>
+        <v>6.6503083333333333</v>
+      </c>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -6453,7 +7201,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
-      <c r="P20" s="18"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
@@ -6461,8 +7209,9 @@
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>176</v>
       </c>
@@ -6473,20 +7222,23 @@
       <c r="D21" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="19">
+        <f>B18-C18</f>
+        <v>0.35070215865664833</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="45"/>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="L21" s="45"/>
       <c r="M21" s="45"/>
-      <c r="N21" s="24"/>
+      <c r="N21" s="45"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="18"/>
+      <c r="P21" s="24"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
@@ -6494,30 +7246,40 @@
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickTop="1">
+      <c r="X21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>213</v>
       </c>
       <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="42">
+        <f>E17</f>
+        <v>0.18276787274414463</v>
+      </c>
+      <c r="D22" s="42">
+        <f>F17</f>
+        <v>-0.23750000000000013</v>
+      </c>
+      <c r="E22" s="20">
+        <f>B18-D18</f>
+        <v>0.54240398535900636</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="J22" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="66"/>
       <c r="K22" s="66"/>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
-      <c r="P22" s="18"/>
+      <c r="P22" s="66"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
@@ -6525,30 +7287,37 @@
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>214</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="42">
+        <f>AVERAGE(I5:I16)</f>
+        <v>0.49225341486206248</v>
+      </c>
+      <c r="D23" s="42">
+        <f>AVERAGE(J5:J16)</f>
+        <v>0.35060833333333341</v>
+      </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="J23" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="J23" s="45"/>
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
-      <c r="P23" s="18"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
@@ -6556,30 +7325,37 @@
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>215</v>
       </c>
       <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="42">
+        <f>SQRT(C23)</f>
+        <v>0.70160773574844693</v>
+      </c>
+      <c r="D24" s="42">
+        <f>SQRT(D23)</f>
+        <v>0.59212189060474141</v>
+      </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="J24" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="J24" s="45"/>
       <c r="K24" s="45"/>
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
-      <c r="P24" s="18"/>
+      <c r="P24" s="45"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
@@ -6587,30 +7363,37 @@
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>216</v>
       </c>
       <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="42">
+        <f>SQRT(G17)</f>
+        <v>0.5563142476316042</v>
+      </c>
+      <c r="D25" s="42">
+        <f>SQRT(H17)</f>
+        <v>0.40968336625885698</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="J25" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="J25" s="45"/>
       <c r="K25" s="45"/>
       <c r="L25" s="45"/>
       <c r="M25" s="45"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
-      <c r="P25" s="18"/>
+      <c r="P25" s="45"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
@@ -6618,30 +7401,40 @@
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>217</v>
       </c>
       <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="18"/>
+      <c r="C26" s="70">
+        <f>ABS(E17)</f>
+        <v>0.18276787274414463</v>
+      </c>
+      <c r="D26" s="70">
+        <f>ABS(F17)</f>
+        <v>0.23750000000000013</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" ref="E26:E27" si="23">(C26-D26)/D26</f>
+        <v>-0.23045106212991776</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="48" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="J26" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="J26" s="45"/>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="45"/>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
-      <c r="P26" s="18"/>
+      <c r="P26" s="45"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
@@ -6649,30 +7442,40 @@
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>175</v>
       </c>
       <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="42">
+        <f>M17</f>
+        <v>0.30770135795351544</v>
+      </c>
+      <c r="D27" s="42">
+        <f>N17</f>
+        <v>1.4646810583712569E-2</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" si="23"/>
+        <v>20.00807928080145</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="J27" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="J27" s="45"/>
       <c r="K27" s="45"/>
       <c r="L27" s="45"/>
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
-      <c r="P27" s="18"/>
+      <c r="P27" s="45"/>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
@@ -6680,30 +7483,40 @@
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+      <c r="X27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="70">
+        <f>O17</f>
+        <v>0.44943255125293446</v>
+      </c>
+      <c r="D28" s="70">
+        <f>P17</f>
+        <v>0.34551262582711434</v>
+      </c>
+      <c r="E28" s="18">
+        <f>(C28-D28)/D28</f>
+        <v>0.30077026903734333</v>
+      </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="57" t="s">
+      <c r="J28" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="J28" s="57"/>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
       <c r="M28" s="57"/>
       <c r="N28" s="57"/>
       <c r="O28" s="57"/>
-      <c r="P28" s="18"/>
+      <c r="P28" s="57"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
@@ -6711,18 +7524,22 @@
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickTop="1">
+      <c r="X28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>174</v>
       </c>
       <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="70">
+        <f>Q18</f>
+        <v>5.685400794722506E-2</v>
+      </c>
+      <c r="D29" s="70"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
@@ -6735,14 +7552,21 @@
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" s="18"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="C30" s="42">
+        <f>SQRT(U17/$W$17)</f>
+        <v>1.1849042348896881</v>
+      </c>
+      <c r="D30" s="42">
+        <f>SQRT(V17/$W$17)</f>
+        <v>1</v>
+      </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -6762,14 +7586,21 @@
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="W30" s="18"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="18"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
       <c r="B31" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="70">
+        <f>C17-$B$17</f>
+        <v>0.18276787274414463</v>
+      </c>
+      <c r="D31" s="70">
+        <f>D17-$B$17</f>
+        <v>-0.23750000000000004</v>
+      </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -6789,14 +7620,21 @@
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="70">
+        <f>ABS(C18-$B18)</f>
+        <v>0.35070215865664833</v>
+      </c>
+      <c r="D32" s="70">
+        <f>D18-$B18</f>
+        <v>-0.54240398535900636</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -6816,15 +7654,22 @@
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+      <c r="X32" s="18"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55"/>
       <c r="B33" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="71">
+        <f>ABS(C32-C31)</f>
+        <v>0.1679342859125037</v>
+      </c>
+      <c r="D33" s="71">
+        <f t="shared" ref="D33:E33" si="24">D32-D31</f>
+        <v>-0.30490398535900631</v>
+      </c>
+      <c r="E33" s="71"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -6843,8 +7688,9 @@
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickTop="1">
+      <c r="X33" s="18"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="20"/>
@@ -6854,11 +7700,11 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
-      <c r="J34" s="18">
+      <c r="J34" s="18"/>
+      <c r="K34" s="18">
         <f>IF(1&gt;3,1,2)</f>
         <v>2</v>
       </c>
-      <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
@@ -6871,15 +7717,16 @@
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
       <c r="W34" s="18"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="18"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="22" t="s">
         <v>224</v>
       </c>
       <c r="C35" s="18"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="18"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
@@ -6895,10 +7742,11 @@
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" s="18"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G36" s="22"/>
-      <c r="H36" s="18"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
@@ -6914,10 +7762,11 @@
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="18"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G37" s="22"/>
-      <c r="H37" s="18"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
@@ -6933,10 +7782,11 @@
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" s="18"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G38" s="22"/>
-      <c r="H38" s="18"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -6952,10 +7802,11 @@
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="18"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G39" s="22"/>
-      <c r="H39" s="18"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
@@ -6971,10 +7822,11 @@
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" s="18"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G40" s="22"/>
-      <c r="H40" s="18"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
@@ -6990,10 +7842,11 @@
       <c r="U40" s="18"/>
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" s="18"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G41" s="22"/>
-      <c r="H41" s="18"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
@@ -7009,10 +7862,11 @@
       <c r="U41" s="18"/>
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" s="18"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G42" s="22"/>
-      <c r="H42" s="18"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
@@ -7028,8 +7882,9 @@
       <c r="U42" s="18"/>
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" s="18"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
@@ -7047,8 +7902,9 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" s="18"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -7072,8 +7928,9 @@
       <c r="U44" s="18"/>
       <c r="V44" s="18"/>
       <c r="W44" s="18"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" s="18"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -7097,14 +7954,15 @@
       <c r="U45" s="18"/>
       <c r="V45" s="18"/>
       <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>